--- a/data/trans_orig/P04A_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P04A_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>13421</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5879</v>
+        <v>5773</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>29213</v>
+        <v>27750</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.02704975870340925</v>
+        <v>0.02704975870340924</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0118491605470055</v>
+        <v>0.01163545045948754</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05887920024338947</v>
+        <v>0.05593185905136935</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -762,19 +762,19 @@
         <v>9701</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5271</v>
+        <v>5447</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17866</v>
+        <v>18283</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01559461125716475</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.008473107515190328</v>
+        <v>0.008755935491474603</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02871907370689981</v>
+        <v>0.02939031982601447</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>22</v>
@@ -783,19 +783,19 @@
         <v>23122</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>13318</v>
+        <v>14355</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>38401</v>
+        <v>41020</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02067712705372293</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01191018443822942</v>
+        <v>0.01283710749125529</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03434060688694569</v>
+        <v>0.03668302197319848</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>30072</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>19783</v>
+        <v>19316</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>44684</v>
+        <v>43517</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06061135012025914</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03987259429605503</v>
+        <v>0.03893213196116672</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09006138960870395</v>
+        <v>0.08770961444089614</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>26</v>
@@ -833,19 +833,19 @@
         <v>19439</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>12404</v>
+        <v>13023</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>29500</v>
+        <v>28695</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.03124744395418697</v>
+        <v>0.03124744395418696</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01993878247493726</v>
+        <v>0.02093403855728329</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04742068717694287</v>
+        <v>0.04612665328271336</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>52</v>
@@ -854,19 +854,19 @@
         <v>49511</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>37501</v>
+        <v>37009</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>66155</v>
+        <v>66964</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04427586786911809</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03353557342197281</v>
+        <v>0.03309635091365216</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05916025296716557</v>
+        <v>0.05988365427001537</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>135225</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>113340</v>
+        <v>112376</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>158971</v>
+        <v>158010</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2725513285325049</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2284405612471862</v>
+        <v>0.2264971212628893</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3204116812090214</v>
+        <v>0.3184752267383605</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>171</v>
@@ -904,19 +904,19 @@
         <v>150962</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>131921</v>
+        <v>128601</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>172611</v>
+        <v>172193</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2426716019950998</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2120629780023376</v>
+        <v>0.206725114687209</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2774713810124811</v>
+        <v>0.2767993495502171</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>283</v>
@@ -925,19 +925,19 @@
         <v>286188</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>257536</v>
+        <v>255810</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>320465</v>
+        <v>319556</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2559288894142144</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2303068411249909</v>
+        <v>0.228763368476418</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2865824562162492</v>
+        <v>0.2857693480262223</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>41801</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>30743</v>
+        <v>29566</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>57070</v>
+        <v>57239</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.0842516669193157</v>
+        <v>0.08425166691931567</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0619644095535526</v>
+        <v>0.05959046885732185</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1150270944247507</v>
+        <v>0.1153666802795427</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>43</v>
@@ -975,19 +975,19 @@
         <v>33280</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>23895</v>
+        <v>24101</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>45006</v>
+        <v>46381</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05349826690115186</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03841168291614783</v>
+        <v>0.03874221305358445</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07234628132050773</v>
+        <v>0.07455723762783846</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>82</v>
@@ -996,19 +996,19 @@
         <v>75082</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>58953</v>
+        <v>59457</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>93042</v>
+        <v>93756</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06714319309033276</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0527195590989657</v>
+        <v>0.05317092245397591</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08320488681577021</v>
+        <v>0.08384318277554684</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>68965</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>52949</v>
+        <v>53835</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>88218</v>
+        <v>89127</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1390006610828879</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1067204697238979</v>
+        <v>0.108505405030071</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1778059730185312</v>
+        <v>0.1796380063223095</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>148</v>
@@ -1046,19 +1046,19 @@
         <v>109500</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>92676</v>
+        <v>93863</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>126918</v>
+        <v>127355</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1760211562279966</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1489763760805445</v>
+        <v>0.1508846686489851</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2040206125173228</v>
+        <v>0.2047233813893405</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>209</v>
@@ -1067,19 +1067,19 @@
         <v>178465</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>156303</v>
+        <v>155450</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>204383</v>
+        <v>204187</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.1595955927636776</v>
+        <v>0.1595955927636777</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1397770071794664</v>
+        <v>0.1390143854223346</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1827734786855889</v>
+        <v>0.1825982115679224</v>
       </c>
     </row>
     <row r="9">
@@ -1096,19 +1096,19 @@
         <v>206662</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>182478</v>
+        <v>183724</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>230793</v>
+        <v>230153</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4165352346416231</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3677919388435347</v>
+        <v>0.3703023243605484</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4651717349277972</v>
+        <v>0.463881174969621</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>458</v>
@@ -1117,19 +1117,19 @@
         <v>299202</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>277732</v>
+        <v>277944</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>321713</v>
+        <v>323309</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4809669196643999</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4464530205618019</v>
+        <v>0.4467941324333478</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5171535395956314</v>
+        <v>0.5197177103541409</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>664</v>
@@ -1138,19 +1138,19 @@
         <v>505865</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>473201</v>
+        <v>470887</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>539136</v>
+        <v>541304</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4523793298089341</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4231696005744766</v>
+        <v>0.4211001085668172</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4821330042309198</v>
+        <v>0.4840713647913326</v>
       </c>
     </row>
     <row r="10">
@@ -1242,19 +1242,19 @@
         <v>6814</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1333</v>
+        <v>1310</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>23452</v>
+        <v>20262</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.007096617711598556</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.00138856218263436</v>
+        <v>0.001364900061760646</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02442545815561976</v>
+        <v>0.02110327005723853</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>12</v>
@@ -1263,19 +1263,19 @@
         <v>10865</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5392</v>
+        <v>5774</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>22565</v>
+        <v>22123</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.009763373873776135</v>
+        <v>0.009763373873776134</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.004844801356400447</v>
+        <v>0.005188672779959382</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02027702599972386</v>
+        <v>0.01987957942209102</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>15</v>
@@ -1284,19 +1284,19 @@
         <v>17679</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>10062</v>
+        <v>8679</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>33172</v>
+        <v>33179</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.008528226533274147</v>
+        <v>0.008528226533274145</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.004853622724900045</v>
+        <v>0.004186525664937049</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01600205518093765</v>
+        <v>0.01600535842625238</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>9229</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3884</v>
+        <v>3937</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>17024</v>
+        <v>17843</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.009612068966273259</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.004045423066319745</v>
+        <v>0.004100724940235388</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01773076988092986</v>
+        <v>0.01858419424642158</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>22</v>
@@ -1334,19 +1334,19 @@
         <v>16396</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>10160</v>
+        <v>9992</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>25992</v>
+        <v>25748</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01473319673436054</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.009129309697822425</v>
+        <v>0.008978335240131976</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02335618276034688</v>
+        <v>0.02313700112875285</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>30</v>
@@ -1355,19 +1355,19 @@
         <v>25625</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>17098</v>
+        <v>16954</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>37024</v>
+        <v>36959</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01236127108445079</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.008247952751178811</v>
+        <v>0.008178673589323454</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01786031819046801</v>
+        <v>0.01782873516180888</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>170550</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>142987</v>
+        <v>144721</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>201257</v>
+        <v>198142</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.17763056096101</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1489235480392353</v>
+        <v>0.1507290752459851</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2096123076531377</v>
+        <v>0.2063684638852767</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>162</v>
@@ -1405,19 +1405,19 @@
         <v>140340</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>118039</v>
+        <v>118454</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>161577</v>
+        <v>162807</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1261082577960218</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1060682619247662</v>
+        <v>0.1064411708795952</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1451917501217305</v>
+        <v>0.1462964214346664</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>293</v>
@@ -1426,19 +1426,19 @@
         <v>310890</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>280236</v>
+        <v>274737</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>347574</v>
+        <v>344658</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1499715703228064</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1351845423113016</v>
+        <v>0.132531706416407</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1676676095631654</v>
+        <v>0.1662612722017497</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>54645</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>38255</v>
+        <v>40107</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>74083</v>
+        <v>74905</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.05691378890152204</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03984311446174362</v>
+        <v>0.04177202405846458</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07715860823748262</v>
+        <v>0.07801494679942861</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>77</v>
@@ -1476,19 +1476,19 @@
         <v>53699</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>42211</v>
+        <v>43192</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>68943</v>
+        <v>69406</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.04825305502174426</v>
+        <v>0.04825305502174428</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03793054235809762</v>
+        <v>0.03881190181419376</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06195130169454696</v>
+        <v>0.06236768143058438</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>121</v>
@@ -1497,19 +1497,19 @@
         <v>108344</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>88663</v>
+        <v>89148</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>132805</v>
+        <v>134170</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0522644013045885</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04277074049657065</v>
+        <v>0.04300429162406379</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06406420581986119</v>
+        <v>0.06472293830655614</v>
       </c>
     </row>
     <row r="15">
@@ -1526,19 +1526,19 @@
         <v>246079</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>217824</v>
+        <v>213706</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>281979</v>
+        <v>275211</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2562955368990518</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.226867227572795</v>
+        <v>0.2225787528643049</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2936867171327298</v>
+        <v>0.2866367204613374</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>351</v>
@@ -1547,19 +1547,19 @@
         <v>273282</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>248759</v>
+        <v>247579</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>297530</v>
+        <v>299565</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.2455688033194817</v>
+        <v>0.2455688033194816</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2235325399194868</v>
+        <v>0.2224717193917201</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2673572481950333</v>
+        <v>0.2691857052178642</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>552</v>
@@ -1568,19 +1568,19 @@
         <v>519361</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>483806</v>
+        <v>474619</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>560965</v>
+        <v>556152</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2505370477510463</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2333852109386511</v>
+        <v>0.2289538354338282</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2706066196176532</v>
+        <v>0.2682846960088575</v>
       </c>
     </row>
     <row r="16">
@@ -1597,19 +1597,19 @@
         <v>472821</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>439409</v>
+        <v>436828</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>504627</v>
+        <v>507600</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4924514265605445</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4576519978950985</v>
+        <v>0.4549641259145972</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5255784028617529</v>
+        <v>0.528674454689308</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>978</v>
@@ -1618,19 +1618,19 @@
         <v>618273</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>587403</v>
+        <v>585820</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>647424</v>
+        <v>649316</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5555733132546156</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5278341843916876</v>
+        <v>0.5264119137244901</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5817688190889243</v>
+        <v>0.583468757671347</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1501</v>
@@ -1639,19 +1639,19 @@
         <v>1091093</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1042174</v>
+        <v>1047625</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1134139</v>
+        <v>1137179</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5263374830038339</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5027392047396635</v>
+        <v>0.5053683801130484</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5471025850482054</v>
+        <v>0.5485689462894877</v>
       </c>
     </row>
     <row r="17">
@@ -1743,19 +1743,19 @@
         <v>3237</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>886</v>
+        <v>894</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8914</v>
+        <v>9246</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.003095684916954403</v>
+        <v>0.003095684916954402</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.0008469653265660728</v>
+        <v>0.0008549214929610303</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.008524564166220662</v>
+        <v>0.008842200157707985</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>5</v>
@@ -1764,19 +1764,19 @@
         <v>3853</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1212</v>
+        <v>1133</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>9393</v>
+        <v>9002</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.003695226536891091</v>
+        <v>0.003695226536891092</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.001162184162120077</v>
+        <v>0.001087024603454235</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.009009305138599053</v>
+        <v>0.008634611030686534</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>8</v>
@@ -1785,19 +1785,19 @@
         <v>7089</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>2881</v>
+        <v>3559</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>14095</v>
+        <v>15633</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.003395017437100243</v>
+        <v>0.003395017437100242</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.001379806406224399</v>
+        <v>0.001704337164233654</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.006749719293170357</v>
+        <v>0.007486196901410764</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>13370</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7342</v>
+        <v>7412</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>22408</v>
+        <v>23310</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01278676289074666</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.007021942313020854</v>
+        <v>0.00708810096643738</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02143029507635282</v>
+        <v>0.02229311956100511</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>15</v>
@@ -1835,19 +1835,19 @@
         <v>11806</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6323</v>
+        <v>6912</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>20393</v>
+        <v>19673</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01132410809201461</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.006064399776520333</v>
+        <v>0.006629996801474454</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01955979300256292</v>
+        <v>0.01886952405067088</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>29</v>
@@ -1856,19 +1856,19 @@
         <v>25176</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>17400</v>
+        <v>17791</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>36076</v>
+        <v>37618</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01205650475278102</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.008332305487737012</v>
+        <v>0.008519914013900596</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01727604386745008</v>
+        <v>0.01801473057369609</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>93055</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>74456</v>
+        <v>72561</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>117278</v>
+        <v>115597</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.08899499991785638</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07120670546034633</v>
+        <v>0.06939441757095979</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1121603712832922</v>
+        <v>0.1105529004384778</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>106</v>
@@ -1906,19 +1906,19 @@
         <v>91083</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>75972</v>
+        <v>73929</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>109583</v>
+        <v>111174</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.08736369648138397</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07286940027748115</v>
+        <v>0.07091050165454682</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1051077955054428</v>
+        <v>0.1066344571149899</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>187</v>
@@ -1927,19 +1927,19 @@
         <v>184139</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>159569</v>
+        <v>158975</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>213210</v>
+        <v>211314</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.08818054075017855</v>
+        <v>0.08818054075017853</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07641483647846418</v>
+        <v>0.07613020101741068</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1021023775345069</v>
+        <v>0.1011944164133701</v>
       </c>
     </row>
     <row r="21">
@@ -1956,19 +1956,19 @@
         <v>47674</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>34788</v>
+        <v>35658</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>63349</v>
+        <v>65521</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.04559393332443791</v>
+        <v>0.0455939333244379</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03327027562502487</v>
+        <v>0.03410219523779053</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.0605846535105939</v>
+        <v>0.06266188479994549</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>51</v>
@@ -1977,19 +1977,19 @@
         <v>35140</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>26208</v>
+        <v>25944</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>45537</v>
+        <v>45201</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.03370474512384265</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02513801697745838</v>
+        <v>0.02488466628725263</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.04367779160805521</v>
+        <v>0.04335534772124305</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>97</v>
@@ -1998,19 +1998,19 @@
         <v>82814</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>66968</v>
+        <v>65534</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>102238</v>
+        <v>100949</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.03965803071446035</v>
+        <v>0.03965803071446034</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.03206984857243435</v>
+        <v>0.03138296662509844</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.04895989229262211</v>
+        <v>0.04834252192416703</v>
       </c>
     </row>
     <row r="22">
@@ -2027,19 +2027,19 @@
         <v>308704</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>276046</v>
+        <v>276370</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>343444</v>
+        <v>341322</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2952334307163905</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2640002879665468</v>
+        <v>0.2643108954891038</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3284575399978798</v>
+        <v>0.3264282877268126</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>388</v>
@@ -2048,19 +2048,19 @@
         <v>299679</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>273907</v>
+        <v>273869</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>326433</v>
+        <v>330017</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.2874421049893503</v>
+        <v>0.2874421049893504</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2627223626732995</v>
+        <v>0.2626857984002375</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3131031942341682</v>
+        <v>0.3165412542439078</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>638</v>
@@ -2069,19 +2069,19 @@
         <v>608383</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>568774</v>
+        <v>566817</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>651757</v>
+        <v>654879</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2913434636355424</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2723755128908535</v>
+        <v>0.2714380128961538</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3121144046010955</v>
+        <v>0.3136094509643302</v>
       </c>
     </row>
     <row r="23">
@@ -2098,19 +2098,19 @@
         <v>579585</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>544402</v>
+        <v>544491</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>614163</v>
+        <v>614484</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.5542951882336141</v>
+        <v>0.5542951882336139</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5206468292612548</v>
+        <v>0.5207323961948181</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5873641283870299</v>
+        <v>0.5876705776587207</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>944</v>
@@ -2119,19 +2119,19 @@
         <v>601012</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>570768</v>
+        <v>568896</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>628990</v>
+        <v>627558</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5764701187765173</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5474608721699716</v>
+        <v>0.5456656355645604</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6033056281706682</v>
+        <v>0.6019317317356945</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1578</v>
@@ -2140,19 +2140,19 @@
         <v>1180598</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1134199</v>
+        <v>1132488</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1227219</v>
+        <v>1226787</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5653664427099374</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5431472009355059</v>
+        <v>0.5423278558713407</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5876926717321026</v>
+        <v>0.5874855306531979</v>
       </c>
     </row>
     <row r="24">
@@ -2244,19 +2244,19 @@
         <v>14006</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>6103</v>
+        <v>5721</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>31964</v>
+        <v>30996</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01451417542340424</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.006324801768350476</v>
+        <v>0.005928617864698628</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03312491834743522</v>
+        <v>0.03212141556396171</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>6</v>
@@ -2265,19 +2265,19 @@
         <v>4277</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1515</v>
+        <v>1768</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>8968</v>
+        <v>8546</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.004704927913473014</v>
+        <v>0.004704927913473013</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.001666267236252565</v>
+        <v>0.001945184511191193</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.009866507734694073</v>
+        <v>0.009401890700041174</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>13</v>
@@ -2286,19 +2286,19 @@
         <v>18282</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>9089</v>
+        <v>8741</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>37825</v>
+        <v>34425</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.009756183618699309</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.004850271000364744</v>
+        <v>0.004664683501444186</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02018519231258811</v>
+        <v>0.01837052885260444</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>8788</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4597</v>
+        <v>4216</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>16530</v>
+        <v>16564</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.009107273142163353</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.004763910307713751</v>
+        <v>0.004369058374371338</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01713041580843863</v>
+        <v>0.01716524388516656</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>9</v>
@@ -2336,19 +2336,19 @@
         <v>7575</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3664</v>
+        <v>3570</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>16535</v>
+        <v>15775</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.008333923554864269</v>
+        <v>0.008333923554864267</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.004030938993161843</v>
+        <v>0.003927170910480801</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01819092991333214</v>
+        <v>0.01735512850323679</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>19</v>
@@ -2357,19 +2357,19 @@
         <v>16363</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>9888</v>
+        <v>9630</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>27300</v>
+        <v>26961</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.008732158639770013</v>
+        <v>0.008732158639770012</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.005276562817753342</v>
+        <v>0.005138820471297005</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01456827373245893</v>
+        <v>0.01438773524041358</v>
       </c>
     </row>
     <row r="27">
@@ -2386,19 +2386,19 @@
         <v>89327</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>69576</v>
+        <v>69475</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>115509</v>
+        <v>116292</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.09257038004705118</v>
+        <v>0.09257038004705119</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.07210188054356347</v>
+        <v>0.07199724969087809</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1197023267228152</v>
+        <v>0.1205136778295703</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>75</v>
@@ -2407,19 +2407,19 @@
         <v>70130</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>55210</v>
+        <v>53877</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>90220</v>
+        <v>88613</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.07715565791258014</v>
+        <v>0.07715565791258013</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.06074124580547543</v>
+        <v>0.05927436284684449</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.09925829627716681</v>
+        <v>0.09749066783222633</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>144</v>
@@ -2428,19 +2428,19 @@
         <v>159457</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>135925</v>
+        <v>133564</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>191157</v>
+        <v>192406</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.08509344346110392</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.07253575298586042</v>
+        <v>0.0712756512607505</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1020095463111007</v>
+        <v>0.1026760971178491</v>
       </c>
     </row>
     <row r="28">
@@ -2457,19 +2457,19 @@
         <v>17938</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>9699</v>
+        <v>10198</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>28879</v>
+        <v>29616</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01858878319372842</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01005141951752465</v>
+        <v>0.01056773266116654</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02992697576966627</v>
+        <v>0.03069118347440887</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>20</v>
@@ -2478,19 +2478,19 @@
         <v>14538</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>9138</v>
+        <v>8733</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>22359</v>
+        <v>21980</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.0159947343799739</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01005394964907779</v>
+        <v>0.009608308071115</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02459941619139392</v>
+        <v>0.02418234479513022</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>37</v>
@@ -2499,19 +2499,19 @@
         <v>32476</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>22550</v>
+        <v>22432</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>46535</v>
+        <v>45677</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01733053550608953</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01203351742813349</v>
+        <v>0.01197073983880781</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0248330176090398</v>
+        <v>0.02437501495000054</v>
       </c>
     </row>
     <row r="29">
@@ -2528,19 +2528,19 @@
         <v>212623</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>185533</v>
+        <v>185397</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>243658</v>
+        <v>243776</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2203425054289572</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1922686518603975</v>
+        <v>0.1921276027860157</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2525044685059607</v>
+        <v>0.2526266491918254</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>274</v>
@@ -2549,19 +2549,19 @@
         <v>214898</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>190971</v>
+        <v>188984</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>238317</v>
+        <v>237571</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.236426832098045</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2101029554838214</v>
+        <v>0.2079169101112875</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2621915810480315</v>
+        <v>0.2613713727819079</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>448</v>
@@ -2570,19 +2570,19 @@
         <v>427521</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>391668</v>
+        <v>392779</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>470283</v>
+        <v>462585</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2281442348071012</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2090115068600037</v>
+        <v>0.2096042784140826</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2509635781679058</v>
+        <v>0.2468555177828696</v>
       </c>
     </row>
     <row r="30">
@@ -2599,19 +2599,19 @@
         <v>622284</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>591296</v>
+        <v>587966</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>658096</v>
+        <v>657844</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.6448768827646956</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.612764070317891</v>
+        <v>0.6093122557175925</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.6819887540314381</v>
+        <v>0.681727465189393</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>938</v>
@@ -2620,19 +2620,19 @@
         <v>597524</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>568712</v>
+        <v>572086</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>622734</v>
+        <v>624399</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.6573839241410636</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.6256859906907561</v>
+        <v>0.6293975888076736</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.6851197878049328</v>
+        <v>0.6869515321086572</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1601</v>
@@ -2641,19 +2641,19 @@
         <v>1219808</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1178731</v>
+        <v>1176766</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1263082</v>
+        <v>1263926</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.6509434439672361</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.629022611745119</v>
+        <v>0.6279742524421704</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.6740360290407411</v>
+        <v>0.6744867465356087</v>
       </c>
     </row>
     <row r="31">
@@ -2745,19 +2745,19 @@
         <v>37477</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>22250</v>
+        <v>22762</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>58556</v>
+        <v>62156</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01081001491472139</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.006417751247370217</v>
+        <v>0.006565534161812775</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01689014679678425</v>
+        <v>0.01792860511287327</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>36</v>
@@ -2766,19 +2766,19 @@
         <v>28695</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>19503</v>
+        <v>19863</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>41048</v>
+        <v>41916</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.007784020874147108</v>
+        <v>0.007784020874147107</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.005290550340675685</v>
+        <v>0.005388076201774201</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.0111349009099204</v>
+        <v>0.01137032895266691</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>58</v>
@@ -2787,19 +2787,19 @@
         <v>66172</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>48169</v>
+        <v>49281</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>91525</v>
+        <v>91599</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.009250574520024132</v>
+        <v>0.009250574520024134</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.006733788098982503</v>
+        <v>0.006889169552532424</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01279470130372215</v>
+        <v>0.01280511222518105</v>
       </c>
     </row>
     <row r="33">
@@ -2816,19 +2816,19 @@
         <v>61459</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>46444</v>
+        <v>46453</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>81970</v>
+        <v>82200</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.01772759943686928</v>
+        <v>0.01772759943686929</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.01339655339569456</v>
+        <v>0.01339914683893454</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.02364376130043793</v>
+        <v>0.02371020311266959</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>72</v>
@@ -2837,19 +2837,19 @@
         <v>55216</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>42711</v>
+        <v>42661</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>70671</v>
+        <v>70254</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.01497800408209207</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.01158597449395545</v>
+        <v>0.01157234839121307</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.01917036693182725</v>
+        <v>0.01905720583875244</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>130</v>
@@ -2858,19 +2858,19 @@
         <v>116675</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>96854</v>
+        <v>96914</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>140005</v>
+        <v>141748</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.01631060059026952</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.01353968396875329</v>
+        <v>0.01354804837196793</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.01957197558206966</v>
+        <v>0.01981563887844452</v>
       </c>
     </row>
     <row r="34">
@@ -2887,19 +2887,19 @@
         <v>488158</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>437636</v>
+        <v>441471</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>537753</v>
+        <v>538387</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1408062567617767</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1262335552913872</v>
+        <v>0.1273396920943989</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1551117445951014</v>
+        <v>0.1552945353889763</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>514</v>
@@ -2908,19 +2908,19 @@
         <v>452516</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>414295</v>
+        <v>414063</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>494435</v>
+        <v>492629</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.122750882097968</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1123830350857262</v>
+        <v>0.1123202052939281</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1341220606478922</v>
+        <v>0.1336323063647665</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>907</v>
@@ -2929,19 +2929,19 @@
         <v>940673</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>877082</v>
+        <v>878685</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1000673</v>
+        <v>1002693</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1315014530461709</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.122611722454174</v>
+        <v>0.1228358386451053</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1398890786359133</v>
+        <v>0.1401714631129117</v>
       </c>
     </row>
     <row r="35">
@@ -2958,19 +2958,19 @@
         <v>162058</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>133947</v>
+        <v>133972</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>191826</v>
+        <v>194630</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.04674466658805765</v>
+        <v>0.04674466658805766</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.03863623241785761</v>
+        <v>0.03864349706747643</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.05533102911179531</v>
+        <v>0.05614003042726479</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>191</v>
@@ -2979,19 +2979,19 @@
         <v>136657</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>117885</v>
+        <v>119850</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>158271</v>
+        <v>159270</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.03707004819167267</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.03197791691533824</v>
+        <v>0.03251103645630683</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.04293304385682491</v>
+        <v>0.04320421261823618</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>337</v>
@@ -3000,19 +3000,19 @@
         <v>298715</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>265082</v>
+        <v>263508</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>335831</v>
+        <v>335000</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.04175887001069867</v>
+        <v>0.04175887001069868</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.03705719384187604</v>
+        <v>0.03683715462268074</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.04694755283819556</v>
+        <v>0.04683134199668533</v>
       </c>
     </row>
     <row r="36">
@@ -3029,19 +3029,19 @@
         <v>836370</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>783748</v>
+        <v>780567</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>897807</v>
+        <v>895976</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2412461429874553</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2260675247527552</v>
+        <v>0.2251500903996407</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2589671530007626</v>
+        <v>0.2584389690237381</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1161</v>
@@ -3050,19 +3050,19 @@
         <v>897360</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>848270</v>
+        <v>851425</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>942633</v>
+        <v>944186</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2434209155320234</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2301046132716559</v>
+        <v>0.2309604792894404</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2557018673328597</v>
+        <v>0.2561230552350207</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1847</v>
@@ -3071,19 +3071,19 @@
         <v>1733730</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1658487</v>
+        <v>1667312</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>1808717</v>
+        <v>1817516</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2423669079690791</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2318482315819195</v>
+        <v>0.2330819386243911</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2528497097023866</v>
+        <v>0.254079706452249</v>
       </c>
     </row>
     <row r="37">
@@ -3100,19 +3100,19 @@
         <v>1881353</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1818157</v>
+        <v>1815647</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>1954123</v>
+        <v>1950662</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.5426653193111197</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.5244367642505799</v>
+        <v>0.5237128530885373</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.5636554189819223</v>
+        <v>0.5626572494266524</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>3318</v>
@@ -3121,19 +3121,19 @@
         <v>2116011</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>2062581</v>
+        <v>2061657</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>2173219</v>
+        <v>2167588</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.5739961292220969</v>
+        <v>0.5739961292220966</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.5595025189172114</v>
+        <v>0.5592518310577427</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.5895146571328098</v>
+        <v>0.587987054894908</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>5344</v>
@@ -3142,19 +3142,19 @@
         <v>3997364</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>3912103</v>
+        <v>3912539</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>4082856</v>
+        <v>4083200</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.5588115938637576</v>
+        <v>0.5588115938637578</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.5468925446980386</v>
+        <v>0.5469534914062766</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.570762949191351</v>
+        <v>0.5708110119392374</v>
       </c>
     </row>
     <row r="38">
